--- a/SOURCE_DOCUMENTS/VOX Articles.xlsx
+++ b/SOURCE_DOCUMENTS/VOX Articles.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -19,358 +19,10 @@
     <t>In Conversation with Shri. Ramesh Pokhriyal ‘Nishank’</t>
   </si>
   <si>
-    <t>#3: The Genesis of a Book</t>
-  </si>
-  <si>
-    <t>Placements 2019</t>
-  </si>
-  <si>
-    <t>#2: Days at the PK Kelkar Library: Books and Us</t>
-  </si>
-  <si>
-    <t>#1: The Future of a Book: Journey from Shelf to Doom</t>
-  </si>
-  <si>
-    <t>Hall of Residence I: As It Happened Yesterday</t>
-  </si>
-  <si>
-    <t>General Body Meeting: As It Happened</t>
-  </si>
-  <si>
-    <t>Poor QS Employability Rankings: The story of IIT Kanpur</t>
-  </si>
-  <si>
-    <t>Freshers’ Night: The things that went right</t>
-  </si>
-  <si>
-    <t>Freshers’ Night: Literally a Jester’s Dominion</t>
-  </si>
-  <si>
-    <t>Startup Stories: Incubating at IITK</t>
-  </si>
-  <si>
-    <t>A First-Gen Entrepreneur: In Conversation with Dr. BVR Mohan Reddy</t>
-  </si>
-  <si>
-    <t>Animal Cruelty: Dog beaten to death in Hall 12 premises</t>
-  </si>
-  <si>
-    <t>Let me get this straight…</t>
-  </si>
-  <si>
-    <t>PG Open-house</t>
-  </si>
-  <si>
-    <t>New Opportunities for Aspiring Entrepreneurs – DPP, SUEP</t>
-  </si>
-  <si>
-    <t>GSoC: Ready, Set, Open Source</t>
-  </si>
-  <si>
-    <t>Democracy: Of the People? By the People? For the People?</t>
-  </si>
-  <si>
-    <t>Academics and Career Council</t>
-  </si>
-  <si>
-    <t>De-mock-racy : Elections’19</t>
-  </si>
-  <si>
-    <t>Review: Merger of Cultural Council and Films &amp; Media Council</t>
-  </si>
-  <si>
-    <t>IIT Kanpur Sports – A Waning Culture</t>
-  </si>
-  <si>
-    <t>In Conversation with Captain Joseph</t>
-  </si>
-  <si>
-    <t>In Conversation with the Director – Part 2</t>
-  </si>
-  <si>
-    <t>In Conversation with the Director – Part 1</t>
-  </si>
-  <si>
-    <t>The Curious Case Of Spurious Branch Change</t>
-  </si>
-  <si>
-    <t>Preparatory Schools : A Brief Insight</t>
-  </si>
-  <si>
-    <t>IITK – KGMU Summer Biodesign Immersion Programme: Bridging gaps between engineering and healthcare problems</t>
-  </si>
-  <si>
-    <t>De-Addiction Clinic</t>
-  </si>
-  <si>
-    <t>Interview with Dr Rajaraman</t>
-  </si>
-  <si>
-    <t>National Technology Day 2018</t>
-  </si>
-  <si>
-    <t>IIT Kanpur team wins RBI Policy Challenge-2018</t>
-  </si>
-  <si>
-    <t>Institute of Eminence</t>
-  </si>
-  <si>
-    <t>IITK-101</t>
-  </si>
-  <si>
-    <t>Taking Inspiration from our Alumni</t>
-  </si>
-  <si>
-    <t>The Ragging Incident : Truth vs Hype</t>
-  </si>
-  <si>
-    <t>IIT Kanpur is penalising 22 students for its own failures</t>
-  </si>
-  <si>
-    <t>A Brief Timeline of the Security Issue on Campus</t>
-  </si>
-  <si>
-    <t>SSAC Ignores Procedures in Ragging Related Issue</t>
-  </si>
-  <si>
-    <t>Why were the VH staff fired?</t>
-  </si>
-  <si>
     <t>January 13, 2020</t>
   </si>
   <si>
-    <t>January 9, 2020</t>
-  </si>
-  <si>
-    <t>January 1, 2020</t>
-  </si>
-  <si>
-    <t>December 27, 2019</t>
-  </si>
-  <si>
-    <t>December 12, 2019</t>
-  </si>
-  <si>
-    <t>November 7, 2019</t>
-  </si>
-  <si>
-    <t>November 1, 2019</t>
-  </si>
-  <si>
-    <t>October 11, 2019</t>
-  </si>
-  <si>
-    <t>August 19, 2019</t>
-  </si>
-  <si>
-    <t>August 15, 2019</t>
-  </si>
-  <si>
-    <t>July 18, 2019</t>
-  </si>
-  <si>
-    <t>July 7, 2019</t>
-  </si>
-  <si>
-    <t>June 1, 2019</t>
-  </si>
-  <si>
-    <t>May 30, 2019</t>
-  </si>
-  <si>
-    <t>May 27, 2019</t>
-  </si>
-  <si>
-    <t>May 21, 2019</t>
-  </si>
-  <si>
-    <t>May 8, 2019</t>
-  </si>
-  <si>
-    <t>April 8, 2019</t>
-  </si>
-  <si>
-    <t>March 5, 2019</t>
-  </si>
-  <si>
-    <t>February 1, 2019</t>
-  </si>
-  <si>
-    <t>January 26, 2019</t>
-  </si>
-  <si>
-    <t>January 22, 2019</t>
-  </si>
-  <si>
-    <t>November 15, 2018</t>
-  </si>
-  <si>
-    <t>October 30, 2018</t>
-  </si>
-  <si>
-    <t>October 29, 2018</t>
-  </si>
-  <si>
-    <t>September 8, 2018</t>
-  </si>
-  <si>
-    <t>September 3, 2018</t>
-  </si>
-  <si>
-    <t>September 2, 2018</t>
-  </si>
-  <si>
-    <t>August 25, 2018</t>
-  </si>
-  <si>
-    <t>June 7, 2018</t>
-  </si>
-  <si>
-    <t>May 12, 2018</t>
-  </si>
-  <si>
-    <t>May 5, 2018</t>
-  </si>
-  <si>
-    <t>December 1, 2017</t>
-  </si>
-  <si>
-    <t>November 9, 2017</t>
-  </si>
-  <si>
-    <t>November 4, 2017</t>
-  </si>
-  <si>
-    <t>October 24, 2017</t>
-  </si>
-  <si>
-    <t>October 15, 2017</t>
-  </si>
-  <si>
-    <t>September 6, 2017</t>
-  </si>
-  <si>
-    <t>September 4, 2017</t>
-  </si>
-  <si>
-    <t>August 29, 2017</t>
-  </si>
-  <si>
     <t>Shri. Ramesh Pokhriyal ‘Nishank’, our Hon’ble Union Minister of Human Resource Development, visited IIT Kanpur as the Chief Guest for our Foundation Day Celebration on 02/11/19. Vox got the opportunity to interact with him personally and get his opinions over a quick QnA session. Here’s the full interview: Ques- How has your visit to IIT Kanpur […]</t>
-  </si>
-  <si>
-    <t>Even before a book reaches the New Arrivals section, it goes through a long process. While you may only see the books placed on shelves waiting to be read, there’s a lot that goes on behind the scenes to bring them to them. The Acquisition and Technical Unit procures books, adds records to the database, […]</t>
-  </si>
-  <si>
-    <t>With changing times, the role of science and technology in the industry and corporate sector has changed a lot too. This change is reflected in the type of jobs the students are taking up after graduating from college. Job opportunities in sectors like Big Data Analytics have rocketed upwards, whereas the Core Engineering sector […]</t>
-  </si>
-  <si>
-    <t>After presenting the ‘Future of a book’ at the library, we bring to you ‘The Present of a book’ at the P.K. Kelkar Library! We start with how a new book is greeted at the library and how it subsequently lives through the shelves of our library. Do watch out for some trivia and facts […]</t>
-  </si>
-  <si>
-    <t>If you might venture into the -1 from the lift of the library, you don’t notice anything eerie, do you? There, my friend, you are mistaken :-P! With more than 28 thousand books in our library (now that’s a LOT) and anywhere between 40 to 150 books being added to this collection every Monday, have […]</t>
-  </si>
-  <si>
-    <t>On 4th November 2019, Mr. Abhishek Aryan Sinha, a final year undergraduate student and a current resident of Hall of Residence 1 wrote an email to the Dean of Student’s Affairs expressing his concerns over various issues the hall residents had been facing. Two days later, on 6th November 2019, while Abhishek was out for […]</t>
-  </si>
-  <si>
-    <t>On 30th October 2019, a General Body Meeting (GBM) was called by the Students’ Gymkhana to address several issues that needed public discourse. Three main agendas that were pushed in the meeting by Student Gymkhana executives were Hostel Governance, Issues with the Student Affairs Office, and Disregard of Student Resolutions by the administration. It started […]</t>
-  </si>
-  <si>
-    <t>IIT-K is one of the most prestigious institutes in the country. It has an excellent academic reputation, several unique facilities for research and world-class faculty. It has a vast alumni network and close to 100% placements are reported every year. And yet, it is a matter of concern that in the QS Graduate Employability Rankings […]</t>
-  </si>
-  <si>
-    <t>“A rolling stone gathers no moss”, typically said to mean that someone who is constantly on the move doesn’t prosper. Well then in the case of a dynamic community like ours where moving forward is the key, a rolling stone does gather moss. While our previous article on the Fresher’s night discussed how senior batches […]</t>
-  </si>
-  <si>
-    <t>This is a fact-based piece that has no intention of hurting any person, party and organisation involved. We take full responsibility for every fact mentioned in this article and can disclose all related proofs when asked by an authority to do so. There are two kinds of performers in an event, the ones who take […]</t>
-  </si>
-  <si>
-    <t>Incubation, one among the many buzzwords that you might have heard in conversation with your “Entrepreneurially-motivated” friend. But as one transcends those casual conversations, you’ll get to know that incubation is an essential phase in every startup’s journey. Startup Incubation &amp; Innovation Centre (SIIC) is a launchpad for purpose-driven entrepreneurs at IIT Kanpur. It […]</t>
-  </si>
-  <si>
-    <t>Dr. BVR Mohan Reddy, a highly distinguished alumnus of IITK, graced the 52nd Convocation this year as the Chief Guest for the event. In times when the country was facing huge economic crises and was heading towards historical reforms, Dr. BVR Mohan Reddy started his entrepreneurial journey by founding the engineering services venture, Infotech Enterprises, […]</t>
-  </si>
-  <si>
-    <t>Disclaimer: The article contains gruesome details of the incident, hence reader’s discretion is advised. Recently, a female dog was found dead in the lower terrace of F-Block, Hall 12. The death did not seem natural, as there was a pool of blood around the victim along with rods that had blood, hair and flesh on […]</t>
-  </si>
-  <si>
-    <t>“When I was asked by a member of Vox Populi and a long time friend to share my story with people, I had two options – whether I wish to share my story anonymously, or come out into the open. A lot of pondering, followed by a realization of the purpose for which I am […]</t>
-  </si>
-  <si>
-    <t>The session began by the moderators, Rupesh Chafle and Vineeth Vijayan, two responsible people from the PG community who stepped in to take the responsibility, acknowledging the fact that IIT Kanpur is increasingly becoming a postgraduate college and therefore for their security and issues the open house was organized. The Director, DoAA, DoSA, DoRD and […]</t>
-  </si>
-  <si>
-    <t>Entrepreneurship in Campus Volume 1: New Opportunities   Amidst the herd with narrowing vision and mediocre ambitions, there you are, with a flicker of light still alive in your eyes. But upfront approaches a storm, threatening to blow out the last of your flame. What do you do? You grip the nearest tree, or its […]</t>
-  </si>
-  <si>
-    <t>As has been the precedent, students from our institute got selected for the prestigious Google Summer of Code 2019. Vox congratulates the selected students on their well-deserved success. The number of selections from our institute continues to be impressive, as has been the trend over the past three installments of the program   GSoC is […]</t>
-  </si>
-  <si>
-    <t>Disclaimer: This is an opinion piece by Ms Archana Singh on the current state of electoral politics on campus. The facts and statements mentioned in this article are based on her interactions with current students and recent alumni on campus.  The 2019 Gymkhana Elections witnessed a series of electoral malpractices. The violations by candidates included mass […]</t>
-  </si>
-  <si>
-    <t>Recently, a new council was formulated and incorporated in the Student’s Gymkhana, the “Academic and Career Council.” The formation of this Council is one of the notable steps the Students’ Gymkhana has taken during this tenure. This was not the first time when a proposal for a council related to academics had come, discussions were […]</t>
-  </si>
-  <si>
-    <t>The General Elections ‘19 for various positions in the Students’ Gymkhana for the 2019-20 tenure are over and so are the unfortunate incidents that took place along with it. The voting took place on 20th January and the code of conduct for the same was enforced from 11th January. The posts for which candidates contested […]</t>
-  </si>
-  <si>
-    <t>– The Media and Cultural Council as we now know it was born out of a merger between the Cultural Council and the Films and Media Council, nearly 2 years ago on a trial basis. The decision was taken by the Students’ Senate on recommendations of the GRC (Gymkhana Review Committee) back in the winter […]</t>
-  </si>
-  <si>
-    <t>Disclaimer: The views presented below are the author’s own and are not in any manner representative of the views of Vox Populi as a body or IIT Kanpur in general. IITK had to wait for 49 years to clinch it’s first Inter-IIT General Championship when history took a turn, and we claimed the trophy in […]</t>
-  </si>
-  <si>
-    <t>IIT Kanpur hosted a cohort of international students from various countries as part of the Indian Technical and Economic Cooperation (ITEC) civilian training programme. The programme is a bilateral effort whereby the Indian Government aims to assist international students from developing countries by inviting them to pursue training courses in various institutions in India. Citizens […]</t>
-  </si>
-  <si>
-    <t>Prof. Abhay Karandikar was appointed six months ago to serve as the Director of the institute. Joining at a very crucial juncture, it has been a challenging and exciting tenure so far for him. Vox Populi got the chance to have a conversation with Prof. Karandikar to gain an insight into his perspective and plans […]</t>
-  </si>
-  <si>
-    <t>The past few weeks have been very busy for the Senate Undergraduate Committee (SUGC) Convenor, all because of a serious error in the campus automation platform, Pingala, which allowed four Y17 students, despite having one fail backlog (E/F or X) in some of the IC (Institute Compulsory) first-year courses, a branch change in their preferred […]</t>
-  </si>
-  <si>
-    <t>During the mid-90s the need for a targeted programme for students falling under the reserved category was felt by the IITs. The huge number of reserved seats going vacant was quoted as the primary reason. The IIT council then wrote to the government for permission to start year-long preparatory courses in the institutes and the […]</t>
-  </si>
-  <si>
-    <t>“I found it to be enjoyable, both as an exercise in thinking about how to design medical equipment and actually observing what goes on inside the human body. It was fun to travel with friends, have a good time along the way and meet new people”, says Sambhav Mattoo, one of seven members from IIT […]</t>
-  </si>
-  <si>
-    <t>We don’t even realize when that one puff, turns into an insatiable craving for more. Addiction can be of anything from gaming, pornography to smoking, drinking or doing drugs. Simply put, addiction is the inability of an individual to stop doing or using something, especially something harmful! It is common knowledge that a big section […]</t>
-  </si>
-  <si>
-    <t>Dr Vaidyeswaran Rajaraman is a distinguished Computer Scientist from India. He has been awarded the Padma Bhushan and the Shanti Swarup Bhatnagar Prize for his contributions to the field of computer science. Dr Rajaraman also served as the Head of the Department of Computer Science and Engineering at IIT Kanpur in its infancy and played a […]</t>
-  </si>
-  <si>
-    <t>On 11th May, 1998, India achieved a major technological breakthrough by successfully carrying out nuclear tests at Pokhran. The day also marks the successful testing of Trishul missile and the first flight of the indigenous aircraft Hansa 3. Hence the day is commemorated as the National Technological day every year. This year at IIT Kanpur, […]</t>
-  </si>
-  <si>
-    <t>We take great pride in congratulating Mr. Ayush Agrawal, Mr. Kartikey Bhargav, Mr. Navneet Singh and Ms. Tanisha Mishra who won the first prize in the RBI Policy Challenge 2018, a national level event organised by RBI. Mentored by Dr. Wasim Ahmad of Economic Sciences department, the team outperformed teams from some of the top B-Schools […]</t>
-  </si>
-  <si>
-    <t>The University Grants Commission (UGC), Govt. of India had released a notice in September ‘17 inviting proposals for a new scheme,‘Institute of Eminence’ (IOE). 10 public and 10 private Indian institutes of higher education will be termed as Institute of Eminence. But only the Institutes which feature in the top 50 positions NIRF rankings will […]</t>
-  </si>
-  <si>
-    <t>There are some fundamental questions about life at IIT Kanpur which only experience and sound advise help us answer. Starting out, everyone has a vision of acing all the courses and getting the highest possible grades. But life here is not one as dimensional as one gets used to in their JEE days. From cultural […]</t>
-  </si>
-  <si>
-    <t>IIT Kanpur celebrated the Institute Foundational Day on 2nd November as it successfully completed 58 glorious years of excellence in science and technology. While we look forward to another year, we take inspiration from some of our alumni who have shown excellence in their respective fields. Our institute recognized its pre-eminent alumni with the Distinguished […]</t>
-  </si>
-  <si>
-    <t>In the wake of the suspension of twenty two students for involvement in a case of ragging, the national media was flooded with articles about this incident. It was unfortunate to see how the primary sources of information for the nation were misrepresenting facts and trying to sensationalise the issue. The article published by Hindustan […]</t>
-  </si>
-  <si>
-    <t>The Institute recently suspended 16 second-year undergraduate students for three years and 6 others for one year on charges of involvement in an incident of ragging. The IIT Kanpur Academic Senate took the decision upon recommendation from the Student Senate Advisory Committee (SSAC). Deputy Director, Dr. Manindra Agrawal was quoted by Times of India, saying […]</t>
-  </si>
-  <si>
-    <t>On 31st August, a postgraduate student at IIT Kanpur told the Students’ Senate about her horrific experience with the Institute security. She alleged being threatened and verbally abused by Mr. Sandeep Shivare, the Security Officer (SO) at IIT. This is not an isolated incident. The meeting of the Senate was the culmination of a series […]</t>
-  </si>
-  <si>
-    <t>The 1st Emergency Meeting of the Students’ Senate, 2017-18 was held on 3rd September, 2017 to take cognizance of a recent mass disciplinary action taken against students, in response to a complaint against ragging filed by some Y17 students. On 2nd September 2017, the Senate Students’ Affairs Committee (SSAC), decided to take punitive action over […]</t>
-  </si>
-  <si>
-    <t>A silent solidarity march was taken out at 5:30 PM on 24th August 2017 in campus to protest against the dismissal of 72 workers (out of strength of 74) of the Visitors’ Hostel (VH). We decided to explore the matter in more depth and conversed with the Deputy Director, Prof. Manindra Agrawal. As is known […]</t>
   </si>
   <si>
     <t>In Conversation with Shri. Ramesh Pokhriyal ‘Nishank’
@@ -405,6 +57,18 @@
 GYMKHANA
 REPORTS AND INVESTIGATIONS
 NEXT</t>
+  </si>
+  <si>
+    <t>https://voxiitk.com/in-conversation-with-shri-ramesh-pokhriyal-nishank/</t>
+  </si>
+  <si>
+    <t>#3: The Genesis of a Book</t>
+  </si>
+  <si>
+    <t>January 9, 2020</t>
+  </si>
+  <si>
+    <t>Even before a book reaches the New Arrivals section, it goes through a long process. While you may only see the books placed on shelves waiting to be read, there’s a lot that goes on behind the scenes to bring them to them. The Acquisition and Technical Unit procures books, adds records to the database, […]</t>
   </si>
   <si>
     <t>INSTITUTE
@@ -490,6 +154,18 @@
 NEXT</t>
   </si>
   <si>
+    <t>https://voxiitk.com/3-the-genesis-of-a-book/</t>
+  </si>
+  <si>
+    <t>Placements 2019</t>
+  </si>
+  <si>
+    <t>January 1, 2020</t>
+  </si>
+  <si>
+    <t>With changing times, the role of science and technology in the industry and corporate sector has changed a lot too. This change is reflected in the type of jobs the students are taking up after graduating from college. Job opportunities in sectors like Big Data Analytics have rocketed upwards, whereas the Core Engineering sector […]</t>
+  </si>
+  <si>
     <t>EVENTS
 INSTITUTE
 STUDENTS
@@ -561,6 +237,18 @@
 Written by Vox Populi
 August 16, 2020
 NEXT</t>
+  </si>
+  <si>
+    <t>https://voxiitk.com/placements-2019/</t>
+  </si>
+  <si>
+    <t>#2: Days at the PK Kelkar Library: Books and Us</t>
+  </si>
+  <si>
+    <t>December 27, 2019</t>
+  </si>
+  <si>
+    <t>After presenting the ‘Future of a book’ at the library, we bring to you ‘The Present of a book’ at the P.K. Kelkar Library! We start with how a new book is greeted at the library and how it subsequently lives through the shelves of our library. Do watch out for some trivia and facts […]</t>
   </si>
   <si>
     <t>INSTITUTE
@@ -638,6 +326,18 @@
 NEXT</t>
   </si>
   <si>
+    <t>https://voxiitk.com/days-at-the-pk-kelkar-library-books-and-us/</t>
+  </si>
+  <si>
+    <t>#1: The Future of a Book: Journey from Shelf to Doom</t>
+  </si>
+  <si>
+    <t>December 12, 2019</t>
+  </si>
+  <si>
+    <t>If you might venture into the -1 from the lift of the library, you don’t notice anything eerie, do you? There, my friend, you are mistaken :-P! With more than 28 thousand books in our library (now that’s a LOT) and anywhere between 40 to 150 books being added to this collection every Monday, have […]</t>
+  </si>
+  <si>
     <t>INSTITUTE
 #1: The Future of a Book: Journey from Shelf to Doom
 Written by Vox Populi
@@ -707,6 +407,18 @@
 NEXT</t>
   </si>
   <si>
+    <t>https://voxiitk.com/1-the-future-of-a-book-journey-from-shelf-to-doom/</t>
+  </si>
+  <si>
+    <t>Hall of Residence I: As It Happened Yesterday</t>
+  </si>
+  <si>
+    <t>November 7, 2019</t>
+  </si>
+  <si>
+    <t>On 4th November 2019, Mr. Abhishek Aryan Sinha, a final year undergraduate student and a current resident of Hall of Residence 1 wrote an email to the Dean of Student’s Affairs expressing his concerns over various issues the hall residents had been facing. Two days later, on 6th November 2019, while Abhishek was out for […]</t>
+  </si>
+  <si>
     <t>Hall of Residence I: As It Happened Yesterday
 3
 On 4th November 2019, Mr. Abhishek Aryan Sinha, a final year undergraduate student and a current resident of Hall of Residence 1 wrote an email to the Dean of Student’s Affairs expressing his concerns over various issues the hall residents had been facing.
@@ -756,6 +468,18 @@
 Written by Vox Populi
 July 23, 2023
 NEXT</t>
+  </si>
+  <si>
+    <t>https://voxiitk.com/hall-1-as-it-happened-yesterday/</t>
+  </si>
+  <si>
+    <t>General Body Meeting: As It Happened</t>
+  </si>
+  <si>
+    <t>November 1, 2019</t>
+  </si>
+  <si>
+    <t>On 30th October 2019, a General Body Meeting (GBM) was called by the Students’ Gymkhana to address several issues that needed public discourse. Three main agendas that were pushed in the meeting by Student Gymkhana executives were Hostel Governance, Issues with the Student Affairs Office, and Disregard of Student Resolutions by the administration. It started […]</t>
   </si>
   <si>
     <t>General Body Meeting: As It Happened
@@ -808,6 +532,18 @@
 Written by Vox Populi
 July 15, 2023
 NEXT</t>
+  </si>
+  <si>
+    <t>https://voxiitk.com/general-body-meeting-as-it-happened/</t>
+  </si>
+  <si>
+    <t>Poor QS Employability Rankings: The story of IIT Kanpur</t>
+  </si>
+  <si>
+    <t>October 11, 2019</t>
+  </si>
+  <si>
+    <t>IIT-K is one of the most prestigious institutes in the country. It has an excellent academic reputation, several unique facilities for research and world-class faculty. It has a vast alumni network and close to 100% placements are reported every year. And yet, it is a matter of concern that in the QS Graduate Employability Rankings […]</t>
   </si>
   <si>
     <t>INSTITUTE
@@ -878,6 +614,18 @@
 NEXT</t>
   </si>
   <si>
+    <t>https://voxiitk.com/qsemployability/</t>
+  </si>
+  <si>
+    <t>Freshers’ Night: The things that went right</t>
+  </si>
+  <si>
+    <t>August 19, 2019</t>
+  </si>
+  <si>
+    <t>“A rolling stone gathers no moss”, typically said to mean that someone who is constantly on the move doesn’t prosper. Well then in the case of a dynamic community like ours where moving forward is the key, a rolling stone does gather moss. While our previous article on the Fresher’s night discussed how senior batches […]</t>
+  </si>
+  <si>
     <t>EVENTS
 Freshers’ Night: The things that went right
 Written by Vox Populi
@@ -934,6 +682,18 @@
 Written by Vox Populi
 May 20, 2023
 NEXT</t>
+  </si>
+  <si>
+    <t>https://voxiitk.com/freshers-night-the-things-that-went-right/</t>
+  </si>
+  <si>
+    <t>Freshers’ Night: Literally a Jester’s Dominion</t>
+  </si>
+  <si>
+    <t>August 15, 2019</t>
+  </si>
+  <si>
+    <t>This is a fact-based piece that has no intention of hurting any person, party and organisation involved. We take full responsibility for every fact mentioned in this article and can disclose all related proofs when asked by an authority to do so. There are two kinds of performers in an event, the ones who take […]</t>
   </si>
   <si>
     <t>EDITORIALS AND OPINION PIECES
@@ -993,6 +753,18 @@
 Written by Vox Populi
 June 18, 2022
 NEXT</t>
+  </si>
+  <si>
+    <t>https://voxiitk.com/freshers-night-literally-a-jesters-dominion/</t>
+  </si>
+  <si>
+    <t>Startup Stories: Incubating at IITK</t>
+  </si>
+  <si>
+    <t>July 18, 2019</t>
+  </si>
+  <si>
+    <t>Incubation, one among the many buzzwords that you might have heard in conversation with your “Entrepreneurially-motivated” friend. But as one transcends those casual conversations, you’ll get to know that incubation is an essential phase in every startup’s journey. Startup Incubation &amp; Innovation Centre (SIIC) is a launchpad for purpose-driven entrepreneurs at IIT Kanpur. It […]</t>
   </si>
   <si>
     <t>INSTITUTE
@@ -1063,6 +835,18 @@
 NEXT</t>
   </si>
   <si>
+    <t>https://voxiitk.com/startup-stories-incubating-at-iitk/</t>
+  </si>
+  <si>
+    <t>A First-Gen Entrepreneur: In Conversation with Dr. BVR Mohan Reddy</t>
+  </si>
+  <si>
+    <t>July 7, 2019</t>
+  </si>
+  <si>
+    <t>Dr. BVR Mohan Reddy, a highly distinguished alumnus of IITK, graced the 52nd Convocation this year as the Chief Guest for the event. In times when the country was facing huge economic crises and was heading towards historical reforms, Dr. BVR Mohan Reddy started his entrepreneurial journey by founding the engineering services venture, Infotech Enterprises, […]</t>
+  </si>
+  <si>
     <t>A First-Gen Entrepreneur: In Conversation with Dr. BVR Mohan Reddy
 0
 Dr. BVR Mohan Reddy, a highly distinguished alumnus of IITK, graced the 52nd Convocation this year as the Chief Guest for the event. In times when the country was facing huge economic crises and was heading towards historical reforms, Dr. BVR Mohan Reddy started his entrepreneurial journey by founding the engineering services venture, Infotech Enterprises, in 1991. Infotech Enterprises was later rebranded as Cyient in 2014. 
@@ -1121,6 +905,18 @@
 NEXT</t>
   </si>
   <si>
+    <t>https://voxiitk.com/a-first-gen-entrepreneur-in-conversation-with-dr-bvr-mohan-reddy/</t>
+  </si>
+  <si>
+    <t>Animal Cruelty: Dog beaten to death in Hall 12 premises</t>
+  </si>
+  <si>
+    <t>June 1, 2019</t>
+  </si>
+  <si>
+    <t>Disclaimer: The article contains gruesome details of the incident, hence reader’s discretion is advised. Recently, a female dog was found dead in the lower terrace of F-Block, Hall 12. The death did not seem natural, as there was a pool of blood around the victim along with rods that had blood, hair and flesh on […]</t>
+  </si>
+  <si>
     <t>INSTITUTE
 Animal Cruelty: Dog beaten to death in Hall 12 premises
 Written by Vox Populi
@@ -1174,6 +970,18 @@
 Written by Vox Populi
 June 20, 2020
 NEXT</t>
+  </si>
+  <si>
+    <t>https://voxiitk.com/animal-cruelty-dog-beaten-to-death-in-hall-12-premises/</t>
+  </si>
+  <si>
+    <t>Let me get this straight…</t>
+  </si>
+  <si>
+    <t>May 30, 2019</t>
+  </si>
+  <si>
+    <t>“When I was asked by a member of Vox Populi and a long time friend to share my story with people, I had two options – whether I wish to share my story anonymously, or come out into the open. A lot of pondering, followed by a realization of the purpose for which I am […]</t>
   </si>
   <si>
     <t>STUDENTS
@@ -1232,6 +1040,18 @@
 Written by Vox Populi
 June 25, 2022
 NEXT</t>
+  </si>
+  <si>
+    <t>https://voxiitk.com/let-me-get-this-straight/</t>
+  </si>
+  <si>
+    <t>PG Open-house</t>
+  </si>
+  <si>
+    <t>May 27, 2019</t>
+  </si>
+  <si>
+    <t>The session began by the moderators, Rupesh Chafle and Vineeth Vijayan, two responsible people from the PG community who stepped in to take the responsibility, acknowledging the fact that IIT Kanpur is increasingly becoming a postgraduate college and therefore for their security and issues the open house was organized. The Director, DoAA, DoSA, DoRD and […]</t>
   </si>
   <si>
     <t>STUDENTS
@@ -1309,6 +1129,18 @@
 NEXT</t>
   </si>
   <si>
+    <t>https://voxiitk.com/pg-open-house/</t>
+  </si>
+  <si>
+    <t>New Opportunities for Aspiring Entrepreneurs – DPP, SUEP</t>
+  </si>
+  <si>
+    <t>May 21, 2019</t>
+  </si>
+  <si>
+    <t>Entrepreneurship in Campus Volume 1: New Opportunities   Amidst the herd with narrowing vision and mediocre ambitions, there you are, with a flicker of light still alive in your eyes. But upfront approaches a storm, threatening to blow out the last of your flame. What do you do? You grip the nearest tree, or its […]</t>
+  </si>
+  <si>
     <t>EVENTS
 STUDENTS
 New Opportunities for Aspiring Entrepreneurs – DPP, SUEP
@@ -1380,6 +1212,18 @@
 Written by Vox Populi
 June 23, 2021
 NEXT</t>
+  </si>
+  <si>
+    <t>https://voxiitk.com/new-opportunities-for-aspiring-entrepreneurs-dpp-suep/</t>
+  </si>
+  <si>
+    <t>GSoC: Ready, Set, Open Source</t>
+  </si>
+  <si>
+    <t>May 8, 2019</t>
+  </si>
+  <si>
+    <t>As has been the precedent, students from our institute got selected for the prestigious Google Summer of Code 2019. Vox congratulates the selected students on their well-deserved success. The number of selections from our institute continues to be impressive, as has been the trend over the past three installments of the program   GSoC is […]</t>
   </si>
   <si>
     <t>STUDENTS
@@ -1455,6 +1299,18 @@
 NEXT</t>
   </si>
   <si>
+    <t>https://voxiitk.com/gsoc-ready-set-open-source/</t>
+  </si>
+  <si>
+    <t>Democracy: Of the People? By the People? For the People?</t>
+  </si>
+  <si>
+    <t>April 8, 2019</t>
+  </si>
+  <si>
+    <t>Disclaimer: This is an opinion piece by Ms Archana Singh on the current state of electoral politics on campus. The facts and statements mentioned in this article are based on her interactions with current students and recent alumni on campus.  The 2019 Gymkhana Elections witnessed a series of electoral malpractices. The violations by candidates included mass […]</t>
+  </si>
+  <si>
     <t>EDITORIALS AND OPINION PIECES
 GYMKHANA
 Democracy: Of the People? By the People? For the People?
@@ -1514,6 +1370,18 @@
 Written by Vox Populi
 May 23, 2023
 NEXT</t>
+  </si>
+  <si>
+    <t>https://voxiitk.com/democracy-of-the-people-by-the-people-for-the-people/</t>
+  </si>
+  <si>
+    <t>Academics and Career Council</t>
+  </si>
+  <si>
+    <t>March 5, 2019</t>
+  </si>
+  <si>
+    <t>Recently, a new council was formulated and incorporated in the Student’s Gymkhana, the “Academic and Career Council.” The formation of this Council is one of the notable steps the Students’ Gymkhana has taken during this tenure. This was not the first time when a proposal for a council related to academics had come, discussions were […]</t>
   </si>
   <si>
     <t>Academics and Career Council
@@ -1585,6 +1453,18 @@
 NEXT</t>
   </si>
   <si>
+    <t>https://voxiitk.com/academics-and-career-council/</t>
+  </si>
+  <si>
+    <t>De-mock-racy : Elections’19</t>
+  </si>
+  <si>
+    <t>February 1, 2019</t>
+  </si>
+  <si>
+    <t>The General Elections ‘19 for various positions in the Students’ Gymkhana for the 2019-20 tenure are over and so are the unfortunate incidents that took place along with it. The voting took place on 20th January and the code of conduct for the same was enforced from 11th January. The posts for which candidates contested […]</t>
+  </si>
+  <si>
     <t>GYMKHANA
 STUDENTS
 De-mock-racy : Elections’19
@@ -1654,6 +1534,18 @@
 NEXT</t>
   </si>
   <si>
+    <t>https://voxiitk.com/de-mock-cracy-election19/</t>
+  </si>
+  <si>
+    <t>Review: Merger of Cultural Council and Films &amp; Media Council</t>
+  </si>
+  <si>
+    <t>January 26, 2019</t>
+  </si>
+  <si>
+    <t>– The Media and Cultural Council as we now know it was born out of a merger between the Cultural Council and the Films and Media Council, nearly 2 years ago on a trial basis. The decision was taken by the Students’ Senate on recommendations of the GRC (Gymkhana Review Committee) back in the winter […]</t>
+  </si>
+  <si>
     <t>Review: Merger of Cultural Council and Films &amp; Media Council
 0
 –
@@ -1708,6 +1600,18 @@
 Written by Vox Populi
 August 8, 2020
 NEXT</t>
+  </si>
+  <si>
+    <t>https://voxiitk.com/review-merger-of-cultural-council-and-films-media-council-2/</t>
+  </si>
+  <si>
+    <t>IIT Kanpur Sports – A Waning Culture</t>
+  </si>
+  <si>
+    <t>January 22, 2019</t>
+  </si>
+  <si>
+    <t>Disclaimer: The views presented below are the author’s own and are not in any manner representative of the views of Vox Populi as a body or IIT Kanpur in general. IITK had to wait for 49 years to clinch it’s first Inter-IIT General Championship when history took a turn, and we claimed the trophy in […]</t>
   </si>
   <si>
     <t>REPORTS AND INVESTIGATIONS
@@ -1779,6 +1683,18 @@
 NEXT</t>
   </si>
   <si>
+    <t>https://voxiitk.com/iit-kanpur-sports-a-waning-culture/</t>
+  </si>
+  <si>
+    <t>In Conversation with Captain Joseph</t>
+  </si>
+  <si>
+    <t>November 15, 2018</t>
+  </si>
+  <si>
+    <t>IIT Kanpur hosted a cohort of international students from various countries as part of the Indian Technical and Economic Cooperation (ITEC) civilian training programme. The programme is a bilateral effort whereby the Indian Government aims to assist international students from developing countries by inviting them to pursue training courses in various institutions in India. Citizens […]</t>
+  </si>
+  <si>
     <t>In Conversation with Captain Joseph
 0
 IIT Kanpur hosted a cohort of international students from various countries as part of the Indian Technical and Economic Cooperation (ITEC) civilian training programme. The programme is a bilateral effort whereby the Indian Government aims to assist international students from developing countries by inviting them to pursue training courses in various institutions in India. Citizens of 17 countries across four continents partook in the programme.
@@ -1828,6 +1744,18 @@
 Written by Vox Populi
 July 21, 2023
 NEXT</t>
+  </si>
+  <si>
+    <t>https://voxiitk.com/in-conversation-with-captain-joseph/</t>
+  </si>
+  <si>
+    <t>In Conversation with the Director – Part 2</t>
+  </si>
+  <si>
+    <t>October 30, 2018</t>
+  </si>
+  <si>
+    <t>Prof. Abhay Karandikar was appointed six months ago to serve as the Director of the institute. Joining at a very crucial juncture, it has been a challenging and exciting tenure so far for him. Vox Populi got the chance to have a conversation with Prof. Karandikar to gain an insight into his perspective and plans […]</t>
   </si>
   <si>
     <t>ADMINISTRATION
@@ -1900,6 +1828,15 @@
 NEXT</t>
   </si>
   <si>
+    <t>https://voxiitk.com/in-conversation-with-the-director-part-2/</t>
+  </si>
+  <si>
+    <t>In Conversation with the Director – Part 1</t>
+  </si>
+  <si>
+    <t>October 29, 2018</t>
+  </si>
+  <si>
     <t>ADMINISTRATION
 ALL ABOUT IITK
 In Conversation with the Director – Part 1
@@ -1969,6 +1906,18 @@
 NEXT</t>
   </si>
   <si>
+    <t>https://voxiitk.com/in-conversation-with-the-director-part-1/</t>
+  </si>
+  <si>
+    <t>The Curious Case Of Spurious Branch Change</t>
+  </si>
+  <si>
+    <t>September 8, 2018</t>
+  </si>
+  <si>
+    <t>The past few weeks have been very busy for the Senate Undergraduate Committee (SUGC) Convenor, all because of a serious error in the campus automation platform, Pingala, which allowed four Y17 students, despite having one fail backlog (E/F or X) in some of the IC (Institute Compulsory) first-year courses, a branch change in their preferred […]</t>
+  </si>
+  <si>
     <t>ADMINISTRATION
 ALL ABOUT IITK
 REPORTS AND INVESTIGATIONS
@@ -2034,6 +1983,18 @@
 NEXT</t>
   </si>
   <si>
+    <t>https://voxiitk.com/the-curious-case-of-spurious-branch-change/</t>
+  </si>
+  <si>
+    <t>Preparatory Schools : A Brief Insight</t>
+  </si>
+  <si>
+    <t>September 3, 2018</t>
+  </si>
+  <si>
+    <t>During the mid-90s the need for a targeted programme for students falling under the reserved category was felt by the IITs. The huge number of reserved seats going vacant was quoted as the primary reason. The IIT council then wrote to the government for permission to start year-long preparatory courses in the institutes and the […]</t>
+  </si>
+  <si>
     <t>ALL ABOUT IITK
 STUDENTS
 Preparatory Schools : A Brief Insight
@@ -2089,6 +2050,18 @@
 Written by Vox Populi
 June 24, 2023
 NEXT</t>
+  </si>
+  <si>
+    <t>https://voxiitk.com/preparatory-schools-a-brief-insight/</t>
+  </si>
+  <si>
+    <t>IITK – KGMU Summer Biodesign Immersion Programme: Bridging gaps between engineering and healthcare problems</t>
+  </si>
+  <si>
+    <t>September 2, 2018</t>
+  </si>
+  <si>
+    <t>“I found it to be enjoyable, both as an exercise in thinking about how to design medical equipment and actually observing what goes on inside the human body. It was fun to travel with friends, have a good time along the way and meet new people”, says Sambhav Mattoo, one of seven members from IIT […]</t>
   </si>
   <si>
     <t>ALL ABOUT IITK
@@ -2153,6 +2126,18 @@
 NEXT</t>
   </si>
   <si>
+    <t>https://voxiitk.com/iitk-kgmu-summer-biodesign-immersion-programme-bridging-gaps-between-engineering-and-healthcare-problems/</t>
+  </si>
+  <si>
+    <t>De-Addiction Clinic</t>
+  </si>
+  <si>
+    <t>August 25, 2018</t>
+  </si>
+  <si>
+    <t>We don’t even realize when that one puff, turns into an insatiable craving for more. Addiction can be of anything from gaming, pornography to smoking, drinking or doing drugs. Simply put, addiction is the inability of an individual to stop doing or using something, especially something harmful! It is common knowledge that a big section […]</t>
+  </si>
+  <si>
     <t>ADMINISTRATION
 ALL ABOUT IITK
 INSTITUTE
@@ -2209,6 +2194,18 @@
 Written by Vox Populi
 July 4, 2022
 NEXT</t>
+  </si>
+  <si>
+    <t>https://voxiitk.com/de-addiction-clinic/</t>
+  </si>
+  <si>
+    <t>Interview with Dr Rajaraman</t>
+  </si>
+  <si>
+    <t>June 7, 2018</t>
+  </si>
+  <si>
+    <t>Dr Vaidyeswaran Rajaraman is a distinguished Computer Scientist from India. He has been awarded the Padma Bhushan and the Shanti Swarup Bhatnagar Prize for his contributions to the field of computer science. Dr Rajaraman also served as the Head of the Department of Computer Science and Engineering at IIT Kanpur in its infancy and played a […]</t>
   </si>
   <si>
     <t>Interview with Dr Rajaraman
@@ -2285,6 +2282,18 @@
 NEXT</t>
   </si>
   <si>
+    <t>https://voxiitk.com/interview-with-dr-rajaraman/</t>
+  </si>
+  <si>
+    <t>National Technology Day 2018</t>
+  </si>
+  <si>
+    <t>May 12, 2018</t>
+  </si>
+  <si>
+    <t>On 11th May, 1998, India achieved a major technological breakthrough by successfully carrying out nuclear tests at Pokhran. The day also marks the successful testing of Trishul missile and the first flight of the indigenous aircraft Hansa 3. Hence the day is commemorated as the National Technological day every year. This year at IIT Kanpur, […]</t>
+  </si>
+  <si>
     <t>ALL ABOUT IITK
 EVENTS
 National Technology Day 2018
@@ -2357,6 +2366,18 @@
 NEXT</t>
   </si>
   <si>
+    <t>https://voxiitk.com/national-technology-day-2018/</t>
+  </si>
+  <si>
+    <t>IIT Kanpur team wins RBI Policy Challenge-2018</t>
+  </si>
+  <si>
+    <t>May 5, 2018</t>
+  </si>
+  <si>
+    <t>We take great pride in congratulating Mr. Ayush Agrawal, Mr. Kartikey Bhargav, Mr. Navneet Singh and Ms. Tanisha Mishra who won the first prize in the RBI Policy Challenge 2018, a national level event organised by RBI. Mentored by Dr. Wasim Ahmad of Economic Sciences department, the team outperformed teams from some of the top B-Schools […]</t>
+  </si>
+  <si>
     <t>IIT Kanpur team wins RBI Policy Challenge-2018
 0
 We take great pride in congratulating Mr. Ayush Agrawal, Mr. Kartikey Bhargav, Mr. Navneet Singh and Ms. Tanisha Mishra who won the first prize in the RBI Policy Challenge 2018, a national level event organised by RBI. Mentored by Dr. Wasim Ahmad of Economic Sciences department, the team outperformed teams from some of the top B-Schools of the nation. They have been awarded a cash prize of Rs. 1 Lakh, a trophy and a 3 months internship in any department of RBI.
@@ -2406,6 +2427,18 @@
 Written by Vox Populi
 July 9, 2022
 NEXT</t>
+  </si>
+  <si>
+    <t>https://voxiitk.com/iit-kanpur-team-wins-rbi-policy-challenge-2018/</t>
+  </si>
+  <si>
+    <t>Institute of Eminence</t>
+  </si>
+  <si>
+    <t>December 1, 2017</t>
+  </si>
+  <si>
+    <t>The University Grants Commission (UGC), Govt. of India had released a notice in September ‘17 inviting proposals for a new scheme,‘Institute of Eminence’ (IOE). 10 public and 10 private Indian institutes of higher education will be termed as Institute of Eminence. But only the Institutes which feature in the top 50 positions NIRF rankings will […]</t>
   </si>
   <si>
     <t>Institute of Eminence
@@ -2469,6 +2502,18 @@
 NEXT</t>
   </si>
   <si>
+    <t>https://voxiitk.com/institute-of-eminence/</t>
+  </si>
+  <si>
+    <t>IITK-101</t>
+  </si>
+  <si>
+    <t>November 9, 2017</t>
+  </si>
+  <si>
+    <t>There are some fundamental questions about life at IIT Kanpur which only experience and sound advise help us answer. Starting out, everyone has a vision of acing all the courses and getting the highest possible grades. But life here is not one as dimensional as one gets used to in their JEE days. From cultural […]</t>
+  </si>
+  <si>
     <t>STUDENTS
 IITK-101
 Written by Vox Populi
@@ -2528,6 +2573,18 @@
 Written by Vox Populi
 June 1, 2024
 NEXT</t>
+  </si>
+  <si>
+    <t>https://voxiitk.com/iitk-101/</t>
+  </si>
+  <si>
+    <t>Taking Inspiration from our Alumni</t>
+  </si>
+  <si>
+    <t>November 4, 2017</t>
+  </si>
+  <si>
+    <t>IIT Kanpur celebrated the Institute Foundational Day on 2nd November as it successfully completed 58 glorious years of excellence in science and technology. While we look forward to another year, we take inspiration from some of our alumni who have shown excellence in their respective fields. Our institute recognized its pre-eminent alumni with the Distinguished […]</t>
   </si>
   <si>
     <t>ALUMNI
@@ -2592,6 +2649,18 @@
 Written by Vox Populi
 August 16, 2020
 NEXT</t>
+  </si>
+  <si>
+    <t>https://voxiitk.com/taking-inspiration-from-our-alumni/</t>
+  </si>
+  <si>
+    <t>The Ragging Incident : Truth vs Hype</t>
+  </si>
+  <si>
+    <t>October 24, 2017</t>
+  </si>
+  <si>
+    <t>In the wake of the suspension of twenty two students for involvement in a case of ragging, the national media was flooded with articles about this incident. It was unfortunate to see how the primary sources of information for the nation were misrepresenting facts and trying to sensationalise the issue. The article published by Hindustan […]</t>
   </si>
   <si>
     <t>The Ragging Incident : Truth vs Hype
@@ -2669,6 +2738,18 @@
 NEXT</t>
   </si>
   <si>
+    <t>https://voxiitk.com/the-ragging-incident-truth-vs-hype/</t>
+  </si>
+  <si>
+    <t>IIT Kanpur is penalising 22 students for its own failures</t>
+  </si>
+  <si>
+    <t>October 15, 2017</t>
+  </si>
+  <si>
+    <t>The Institute recently suspended 16 second-year undergraduate students for three years and 6 others for one year on charges of involvement in an incident of ragging. The IIT Kanpur Academic Senate took the decision upon recommendation from the Student Senate Advisory Committee (SSAC). Deputy Director, Dr. Manindra Agrawal was quoted by Times of India, saying […]</t>
+  </si>
+  <si>
     <t>IIT Kanpur is penalising 22 students for its own failures
 2
 The Institute recently suspended 16 second-year undergraduate students for three years and 6 others for one year on charges of involvement in an incident of ragging. The IIT Kanpur Academic Senate took the decision upon recommendation from the Student Senate Advisory Committee (SSAC). Deputy Director, Dr. Manindra Agrawal was quoted by Times of India, saying that because the charges against the students were extremely serious, the decision had to be taken to send a strong message to students to say no to ragging and maintain decorum.
@@ -2730,6 +2811,18 @@
 NEXT</t>
   </si>
   <si>
+    <t>https://voxiitk.com/iit-kanpur-is-penalising-22-students-for-its-own-failures/</t>
+  </si>
+  <si>
+    <t>A Brief Timeline of the Security Issue on Campus</t>
+  </si>
+  <si>
+    <t>September 6, 2017</t>
+  </si>
+  <si>
+    <t>On 31st August, a postgraduate student at IIT Kanpur told the Students’ Senate about her horrific experience with the Institute security. She alleged being threatened and verbally abused by Mr. Sandeep Shivare, the Security Officer (SO) at IIT. This is not an isolated incident. The meeting of the Senate was the culmination of a series […]</t>
+  </si>
+  <si>
     <t>A Brief Timeline of the Security Issue on Campus
 1
 On 31st August, a postgraduate student at IIT Kanpur told the Students’ Senate about her horrific experience with the Institute security. She alleged being threatened and verbally abused by Mr. Sandeep Shivare, the Security Officer (SO) at IIT.
@@ -2782,6 +2875,18 @@
 NEXT</t>
   </si>
   <si>
+    <t>https://voxiitk.com/a-brief-timeline-of-the-security-issue-on-campus/</t>
+  </si>
+  <si>
+    <t>SSAC Ignores Procedures in Ragging Related Issue</t>
+  </si>
+  <si>
+    <t>September 4, 2017</t>
+  </si>
+  <si>
+    <t>The 1st Emergency Meeting of the Students’ Senate, 2017-18 was held on 3rd September, 2017 to take cognizance of a recent mass disciplinary action taken against students, in response to a complaint against ragging filed by some Y17 students. On 2nd September 2017, the Senate Students’ Affairs Committee (SSAC), decided to take punitive action over […]</t>
+  </si>
+  <si>
     <t>SSAC Ignores Procedures in Ragging Related Issue
 0
 The 1st Emergency Meeting of the Students’ Senate, 2017-18 was held on 3rd September, 2017 to take cognizance of a recent mass disciplinary action taken against students, in response to a complaint against ragging filed by some Y17 students. On 2nd September 2017, the Senate Students’ Affairs Committee (SSAC), decided to take punitive action over 100 students, and punishments included all possible actions in the purview of the SSAC. The student nominees of SSAC couldn’t divulge more information because they were bound to maintain confidentiality of the proceedings of the committee, until the order is communicated to the students involved.
@@ -2833,6 +2938,18 @@
 Written by Vox Populi
 June 27, 2019
 NEXT</t>
+  </si>
+  <si>
+    <t>https://voxiitk.com/ssac-ignores-procedures-in-ragging-related-issue/</t>
+  </si>
+  <si>
+    <t>Why were the VH staff fired?</t>
+  </si>
+  <si>
+    <t>August 29, 2017</t>
+  </si>
+  <si>
+    <t>A silent solidarity march was taken out at 5:30 PM on 24th August 2017 in campus to protest against the dismissal of 72 workers (out of strength of 74) of the Visitors’ Hostel (VH). We decided to explore the matter in more depth and conversed with the Deputy Director, Prof. Manindra Agrawal. As is known […]</t>
   </si>
   <si>
     <t>INSTITUTE
@@ -2894,131 +3011,15 @@
 NEXT</t>
   </si>
   <si>
-    <t>https://voxiitk.com/in-conversation-with-shri-ramesh-pokhriyal-nishank/</t>
-  </si>
-  <si>
-    <t>https://voxiitk.com/3-the-genesis-of-a-book/</t>
-  </si>
-  <si>
-    <t>https://voxiitk.com/placements-2019/</t>
-  </si>
-  <si>
-    <t>https://voxiitk.com/days-at-the-pk-kelkar-library-books-and-us/</t>
-  </si>
-  <si>
-    <t>https://voxiitk.com/1-the-future-of-a-book-journey-from-shelf-to-doom/</t>
-  </si>
-  <si>
-    <t>https://voxiitk.com/hall-1-as-it-happened-yesterday/</t>
-  </si>
-  <si>
-    <t>https://voxiitk.com/general-body-meeting-as-it-happened/</t>
-  </si>
-  <si>
-    <t>https://voxiitk.com/qsemployability/</t>
-  </si>
-  <si>
-    <t>https://voxiitk.com/freshers-night-the-things-that-went-right/</t>
-  </si>
-  <si>
-    <t>https://voxiitk.com/freshers-night-literally-a-jesters-dominion/</t>
-  </si>
-  <si>
-    <t>https://voxiitk.com/startup-stories-incubating-at-iitk/</t>
-  </si>
-  <si>
-    <t>https://voxiitk.com/a-first-gen-entrepreneur-in-conversation-with-dr-bvr-mohan-reddy/</t>
-  </si>
-  <si>
-    <t>https://voxiitk.com/animal-cruelty-dog-beaten-to-death-in-hall-12-premises/</t>
-  </si>
-  <si>
-    <t>https://voxiitk.com/let-me-get-this-straight/</t>
-  </si>
-  <si>
-    <t>https://voxiitk.com/pg-open-house/</t>
-  </si>
-  <si>
-    <t>https://voxiitk.com/new-opportunities-for-aspiring-entrepreneurs-dpp-suep/</t>
-  </si>
-  <si>
-    <t>https://voxiitk.com/gsoc-ready-set-open-source/</t>
-  </si>
-  <si>
-    <t>https://voxiitk.com/democracy-of-the-people-by-the-people-for-the-people/</t>
-  </si>
-  <si>
-    <t>https://voxiitk.com/academics-and-career-council/</t>
-  </si>
-  <si>
-    <t>https://voxiitk.com/de-mock-cracy-election19/</t>
-  </si>
-  <si>
-    <t>https://voxiitk.com/review-merger-of-cultural-council-and-films-media-council-2/</t>
-  </si>
-  <si>
-    <t>https://voxiitk.com/iit-kanpur-sports-a-waning-culture/</t>
-  </si>
-  <si>
-    <t>https://voxiitk.com/in-conversation-with-captain-joseph/</t>
-  </si>
-  <si>
-    <t>https://voxiitk.com/in-conversation-with-the-director-part-2/</t>
-  </si>
-  <si>
-    <t>https://voxiitk.com/in-conversation-with-the-director-part-1/</t>
-  </si>
-  <si>
-    <t>https://voxiitk.com/the-curious-case-of-spurious-branch-change/</t>
-  </si>
-  <si>
-    <t>https://voxiitk.com/preparatory-schools-a-brief-insight/</t>
-  </si>
-  <si>
-    <t>https://voxiitk.com/iitk-kgmu-summer-biodesign-immersion-programme-bridging-gaps-between-engineering-and-healthcare-problems/</t>
-  </si>
-  <si>
-    <t>https://voxiitk.com/de-addiction-clinic/</t>
-  </si>
-  <si>
-    <t>https://voxiitk.com/interview-with-dr-rajaraman/</t>
-  </si>
-  <si>
-    <t>https://voxiitk.com/national-technology-day-2018/</t>
-  </si>
-  <si>
-    <t>https://voxiitk.com/iit-kanpur-team-wins-rbi-policy-challenge-2018/</t>
-  </si>
-  <si>
-    <t>https://voxiitk.com/institute-of-eminence/</t>
-  </si>
-  <si>
-    <t>https://voxiitk.com/iitk-101/</t>
-  </si>
-  <si>
-    <t>https://voxiitk.com/taking-inspiration-from-our-alumni/</t>
-  </si>
-  <si>
-    <t>https://voxiitk.com/the-ragging-incident-truth-vs-hype/</t>
-  </si>
-  <si>
-    <t>https://voxiitk.com/iit-kanpur-is-penalising-22-students-for-its-own-failures/</t>
-  </si>
-  <si>
-    <t>https://voxiitk.com/a-brief-timeline-of-the-security-issue-on-campus/</t>
-  </si>
-  <si>
-    <t>https://voxiitk.com/ssac-ignores-procedures-in-ragging-related-issue/</t>
-  </si>
-  <si>
     <t>https://voxiitk.com/why-were-the-vh-staff-fired/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3029,7 +3030,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -3042,7 +3043,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -3051,23 +3059,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
+  </cellStyleXfs>
+  <cellXfs count="4">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3076,10 +3092,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -3117,69 +3133,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3203,54 +3221,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -3260,7 +3277,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -3269,7 +3286,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -3278,7 +3295,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -3286,10 +3303,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -3318,7 +3335,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -3331,13 +3348,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
+                <a:tint val="80000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -3355,736 +3371,704 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="18.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="3" width="334.8621428571428" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="366">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="921">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="827.25">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="828.75">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="786">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="557.25">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="569.25">
+      <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="748.5">
+      <c r="A8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="636">
+      <c r="A9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="651">
+      <c r="A10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="748.5">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="636">
+      <c r="A12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="602.25">
+      <c r="A13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="636">
+      <c r="A14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="827.25">
+      <c r="A15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="804.75">
+      <c r="A16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="804.75">
+      <c r="A17" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="669.75">
+      <c r="A18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="759.75">
+      <c r="A19" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="759.75">
+      <c r="A20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="613.5">
+      <c r="A21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="759.75">
+      <c r="A22" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="557.25">
+      <c r="A23" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="774.75">
+      <c r="A24" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="759.75">
+      <c r="A25" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="714.75">
+      <c r="A26" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="624.75">
+      <c r="A27" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+      <c r="A28" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
+      <c r="A29" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
+      <c r="A30" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
+      <c r="A31" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
+      <c r="A32" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
+      <c r="A33" s="1" t="s">
         <v>159</v>
       </c>
+      <c r="B33" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>163</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>160</v>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
+      <c r="A34" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>161</v>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
+      <c r="A35" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>162</v>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
+      <c r="A36" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>178</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>163</v>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
+      <c r="A37" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>164</v>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
+      <c r="A38" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>188</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" t="s">
-        <v>125</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>165</v>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
+      <c r="A39" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>193</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" t="s">
-        <v>126</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" t="s">
-        <v>129</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D12" t="s">
-        <v>130</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" t="s">
-        <v>131</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" t="s">
-        <v>132</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15" t="s">
-        <v>133</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" t="s">
-        <v>134</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" t="s">
-        <v>96</v>
-      </c>
-      <c r="D17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D18" t="s">
-        <v>136</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" t="s">
-        <v>98</v>
-      </c>
-      <c r="D19" t="s">
-        <v>137</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" t="s">
-        <v>99</v>
-      </c>
-      <c r="D20" t="s">
-        <v>138</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" t="s">
-        <v>100</v>
-      </c>
-      <c r="D21" t="s">
-        <v>139</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" t="s">
-        <v>101</v>
-      </c>
-      <c r="D22" t="s">
-        <v>140</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" t="s">
-        <v>102</v>
-      </c>
-      <c r="D23" t="s">
-        <v>141</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" t="s">
-        <v>103</v>
-      </c>
-      <c r="D24" t="s">
-        <v>142</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" t="s">
-        <v>103</v>
-      </c>
-      <c r="D25" t="s">
-        <v>143</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" t="s">
-        <v>104</v>
-      </c>
-      <c r="D26" t="s">
-        <v>144</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" t="s">
-        <v>105</v>
-      </c>
-      <c r="D27" t="s">
-        <v>145</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" t="s">
-        <v>106</v>
-      </c>
-      <c r="D28" t="s">
-        <v>146</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" t="s">
-        <v>107</v>
-      </c>
-      <c r="D29" t="s">
-        <v>147</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" t="s">
-        <v>108</v>
-      </c>
-      <c r="D30" t="s">
-        <v>148</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" t="s">
-        <v>109</v>
-      </c>
-      <c r="D31" t="s">
-        <v>149</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" t="s">
-        <v>110</v>
-      </c>
-      <c r="D32" t="s">
-        <v>150</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" t="s">
-        <v>111</v>
-      </c>
-      <c r="D33" t="s">
-        <v>151</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>73</v>
-      </c>
-      <c r="C34" t="s">
-        <v>112</v>
-      </c>
-      <c r="D34" t="s">
-        <v>152</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>74</v>
-      </c>
-      <c r="C35" t="s">
-        <v>113</v>
-      </c>
-      <c r="D35" t="s">
-        <v>153</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>75</v>
-      </c>
-      <c r="C36" t="s">
-        <v>114</v>
-      </c>
-      <c r="D36" t="s">
-        <v>154</v>
-      </c>
-      <c r="E36" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
+      <c r="A40" s="1" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>76</v>
-      </c>
-      <c r="C37" t="s">
-        <v>115</v>
-      </c>
-      <c r="D37" t="s">
-        <v>155</v>
-      </c>
-      <c r="E37" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>77</v>
-      </c>
-      <c r="C38" t="s">
-        <v>116</v>
-      </c>
-      <c r="D38" t="s">
-        <v>156</v>
-      </c>
-      <c r="E38" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>78</v>
-      </c>
-      <c r="C39" t="s">
-        <v>117</v>
-      </c>
-      <c r="D39" t="s">
-        <v>157</v>
-      </c>
-      <c r="E39" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>79</v>
-      </c>
-      <c r="C40" t="s">
-        <v>118</v>
-      </c>
-      <c r="D40" t="s">
-        <v>158</v>
-      </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="2" t="s">
         <v>198</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E1" r:id="rId1"/>
-    <hyperlink ref="E2" r:id="rId2"/>
-    <hyperlink ref="E3" r:id="rId3"/>
-    <hyperlink ref="E4" r:id="rId4"/>
-    <hyperlink ref="E5" r:id="rId5"/>
-    <hyperlink ref="E6" r:id="rId6"/>
-    <hyperlink ref="E7" r:id="rId7"/>
-    <hyperlink ref="E8" r:id="rId8"/>
-    <hyperlink ref="E9" r:id="rId9"/>
-    <hyperlink ref="E10" r:id="rId10"/>
-    <hyperlink ref="E11" r:id="rId11"/>
-    <hyperlink ref="E12" r:id="rId12"/>
-    <hyperlink ref="E13" r:id="rId13"/>
-    <hyperlink ref="E14" r:id="rId14"/>
-    <hyperlink ref="E15" r:id="rId15"/>
-    <hyperlink ref="E16" r:id="rId16"/>
-    <hyperlink ref="E17" r:id="rId17"/>
-    <hyperlink ref="E18" r:id="rId18"/>
-    <hyperlink ref="E19" r:id="rId19"/>
-    <hyperlink ref="E20" r:id="rId20"/>
-    <hyperlink ref="E21" r:id="rId21"/>
-    <hyperlink ref="E22" r:id="rId22"/>
-    <hyperlink ref="E23" r:id="rId23"/>
-    <hyperlink ref="E24" r:id="rId24"/>
-    <hyperlink ref="E25" r:id="rId25"/>
-    <hyperlink ref="E26" r:id="rId26"/>
-    <hyperlink ref="E27" r:id="rId27"/>
-    <hyperlink ref="E28" r:id="rId28"/>
-    <hyperlink ref="E29" r:id="rId29"/>
-    <hyperlink ref="E30" r:id="rId30"/>
-    <hyperlink ref="E31" r:id="rId31"/>
-    <hyperlink ref="E32" r:id="rId32"/>
-    <hyperlink ref="E33" r:id="rId33"/>
-    <hyperlink ref="E34" r:id="rId34"/>
-    <hyperlink ref="E35" r:id="rId35"/>
-    <hyperlink ref="E36" r:id="rId36"/>
-    <hyperlink ref="E37" r:id="rId37"/>
-    <hyperlink ref="E38" r:id="rId38"/>
-    <hyperlink ref="E39" r:id="rId39"/>
-    <hyperlink ref="E40" r:id="rId40"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>